--- a/jpcore-r4/feature/swg2-observation-issues対策/CodeSystem-jp-jfagy-food-allergen-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/CodeSystem-jp-jfagy-food-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:04:22+00:00</t>
+    <t>2022-08-05T01:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-observation-issues対策/CodeSystem-jp-jfagy-food-allergen-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/CodeSystem-jp-jfagy-food-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T01:52:57+00:00</t>
+    <t>2022-08-05T09:16:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-observation-issues対策/CodeSystem-jp-jfagy-food-allergen-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/CodeSystem-jp-jfagy-food-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T09:16:15+00:00</t>
+    <t>2022-08-05T11:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-observation-issues対策/CodeSystem-jp-jfagy-food-allergen-codes-cs.xlsx
+++ b/jpcore-r4/feature/swg2-observation-issues対策/CodeSystem-jp-jfagy-food-allergen-codes-cs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T11:27:15+00:00</t>
+    <t>2022-08-06T09:23:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
